--- a/AfDD_2023_Annex_Table_Tab02.xlsx
+++ b/AfDD_2023_Annex_Table_Tab02.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab02" sheetId="1" r:id="rId1"/>
@@ -12260,7 +12260,7 @@
         <v>7.6270465341108702</v>
       </c>
       <c r="S89" s="40">
-        <v>8.8976969566912096</v>
+        <v>8.8976969566912203</v>
       </c>
       <c r="T89" s="40">
         <v>9.6229948524451991</v>
@@ -12293,7 +12293,7 @@
         <v>4.1514298647808001</v>
       </c>
       <c r="AD89" s="40">
-        <v>5.03529910089431</v>
+        <v>5.0352991008943002</v>
       </c>
       <c r="AE89" s="40">
         <v>4.7729264643125102</v>

--- a/AfDD_2023_Annex_Table_Tab02.xlsx
+++ b/AfDD_2023_Annex_Table_Tab02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AE9A9D0-B2D1-4B3C-B5AD-65DD7ACAAAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43C97551-C727-4C16-82D4-93C4DF9EF350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3A0D5741-7496-4E20-A693-3B741992B1D2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E32AB64B-7484-4DD4-A199-3503EA051512}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab02" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab02'!$A$2:$AO$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab02'!$A$1:$AM$98</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -240,7 +240,7 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>South Sudan</t>
+    <t>South Sudan*</t>
   </si>
   <si>
     <t>SDN</t>
@@ -372,7 +372,7 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>Nigeria*</t>
+    <t>Nigeria</t>
   </si>
   <si>
     <t>SEN</t>
@@ -519,7 +519,7 @@
     <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Pa&gt;ses Africanos de L&gt;ngua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Com&gt;n del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
-    <t>Figures up to 2021 are estimates. For 2022 onwards, they are projections.</t>
+    <t>Figures up to 2022 are estimates. For 2023 onwards, they are projections.</t>
   </si>
   <si>
     <t>Source: IMF World Economic Outlook Database April 2023.</t>
@@ -1295,7 +1295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C222412B-7F6A-41F1-9D0D-286D0A5305FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC0A710-49F0-4EC6-BA8E-5303915AEFC3}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5457,127 +5457,127 @@
       <c r="A34" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D34" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E34" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F34" s="14" t="s">
+      <c r="F34" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="G34" s="14" t="s">
+      <c r="G34" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H34" s="14" t="s">
+      <c r="H34" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="I34" s="14" t="s">
+      <c r="I34" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="J34" s="14" t="s">
+      <c r="J34" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="K34" s="14" t="s">
+      <c r="K34" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="L34" s="14" t="s">
+      <c r="L34" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="M34" s="14" t="s">
+      <c r="M34" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="N34" s="14" t="s">
+      <c r="N34" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="O34" s="14" t="s">
+      <c r="O34" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="P34" s="14" t="s">
+      <c r="P34" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="Q34" s="14" t="s">
+      <c r="Q34" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="R34" s="14" t="s">
+      <c r="R34" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="S34" s="14" t="s">
+      <c r="S34" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="T34" s="14" t="s">
+      <c r="T34" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="U34" s="14" t="s">
+      <c r="U34" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="V34" s="14" t="s">
+      <c r="V34" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="W34" s="14" t="s">
+      <c r="W34" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="X34" s="14" t="s">
+      <c r="X34" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="Y34" s="14">
+      <c r="Y34" s="24">
         <v>-50.319060542728998</v>
       </c>
-      <c r="Z34" s="14">
+      <c r="Z34" s="24">
         <v>27.272138663623199</v>
       </c>
-      <c r="AA34" s="14">
+      <c r="AA34" s="24">
         <v>1.5556498390162601</v>
       </c>
-      <c r="AB34" s="14">
+      <c r="AB34" s="24">
         <v>-0.2312244038472</v>
       </c>
-      <c r="AC34" s="14">
+      <c r="AC34" s="24">
         <v>-13.298768786125001</v>
       </c>
-      <c r="AD34" s="14">
+      <c r="AD34" s="24">
         <v>-5.7935154617061002</v>
       </c>
-      <c r="AE34" s="14">
+      <c r="AE34" s="24">
         <v>-2.1492710823252001</v>
       </c>
-      <c r="AF34" s="14">
+      <c r="AF34" s="24">
         <v>0.85635291055795004</v>
       </c>
-      <c r="AG34" s="14">
+      <c r="AG34" s="24">
         <v>-6.4937270528084001</v>
       </c>
-      <c r="AH34" s="14">
+      <c r="AH34" s="24">
         <v>5.32918198855144</v>
       </c>
-      <c r="AI34" s="14">
+      <c r="AI34" s="24">
         <v>6.5518204300205598</v>
       </c>
-      <c r="AJ34" s="14">
+      <c r="AJ34" s="24">
         <v>5.6254403445607002</v>
       </c>
-      <c r="AK34" s="14">
+      <c r="AK34" s="24">
         <v>4.6439909166080797</v>
       </c>
-      <c r="AL34" s="14">
+      <c r="AL34" s="24">
         <v>4.58554249559577</v>
       </c>
-      <c r="AM34" s="14">
+      <c r="AM34" s="24">
         <v>4.4338625125164501</v>
       </c>
-      <c r="AN34" s="14">
+      <c r="AN34" s="24">
         <v>4.43892499477783</v>
       </c>
-      <c r="AO34" s="14">
+      <c r="AO34" s="24">
         <v>4.4439691614657697</v>
       </c>
-      <c r="AP34" s="15">
+      <c r="AP34" s="25">
         <v>4.5092208382091501</v>
       </c>
     </row>
@@ -8401,127 +8401,127 @@
       <c r="A57" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B57" s="26" t="s">
+      <c r="B57" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="C57" s="24" t="s">
+      <c r="C57" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="24">
+      <c r="D57" s="17">
         <v>-0.55202975792999998</v>
       </c>
-      <c r="E57" s="24">
+      <c r="E57" s="17">
         <v>2.1934928740304098</v>
       </c>
-      <c r="F57" s="24">
+      <c r="F57" s="17">
         <v>1.5688069517474399</v>
       </c>
-      <c r="G57" s="24">
+      <c r="G57" s="17">
         <v>0.25657470553386003</v>
       </c>
-      <c r="H57" s="24">
+      <c r="H57" s="17">
         <v>1.87234845974806</v>
       </c>
-      <c r="I57" s="24">
+      <c r="I57" s="17">
         <v>4.05203392503015</v>
       </c>
-      <c r="J57" s="24">
+      <c r="J57" s="17">
         <v>2.8859156316492198</v>
       </c>
-      <c r="K57" s="24">
+      <c r="K57" s="17">
         <v>2.4956015342762798</v>
       </c>
-      <c r="L57" s="24">
+      <c r="L57" s="17">
         <v>0.52184442114773</v>
       </c>
-      <c r="M57" s="24">
+      <c r="M57" s="17">
         <v>5.5184997086863401</v>
       </c>
-      <c r="N57" s="24">
+      <c r="N57" s="17">
         <v>6.6668481966584201</v>
       </c>
-      <c r="O57" s="24">
+      <c r="O57" s="17">
         <v>14.6043814514254</v>
       </c>
-      <c r="P57" s="24">
+      <c r="P57" s="17">
         <v>9.50260613561551</v>
       </c>
-      <c r="Q57" s="24">
+      <c r="Q57" s="17">
         <v>10.4420037639767</v>
       </c>
-      <c r="R57" s="24">
+      <c r="R57" s="17">
         <v>7.0084568759708299</v>
       </c>
-      <c r="S57" s="24">
+      <c r="S57" s="17">
         <v>6.7259741413882699</v>
       </c>
-      <c r="T57" s="24">
+      <c r="T57" s="17">
         <v>7.3180809016697497</v>
       </c>
-      <c r="U57" s="24">
+      <c r="U57" s="17">
         <v>7.19928710672409</v>
       </c>
-      <c r="V57" s="24">
+      <c r="V57" s="17">
         <v>8.3533441806096302</v>
       </c>
-      <c r="W57" s="24">
+      <c r="W57" s="17">
         <v>11.258906580302</v>
       </c>
-      <c r="X57" s="24">
+      <c r="X57" s="17">
         <v>4.8873880184070702</v>
       </c>
-      <c r="Y57" s="24">
+      <c r="Y57" s="17">
         <v>4.27927739751033</v>
       </c>
-      <c r="Z57" s="24">
+      <c r="Z57" s="17">
         <v>5.3944168546103102</v>
       </c>
-      <c r="AA57" s="24">
+      <c r="AA57" s="17">
         <v>6.3097171464242798</v>
       </c>
-      <c r="AB57" s="24">
+      <c r="AB57" s="17">
         <v>2.6526925209434502</v>
       </c>
-      <c r="AC57" s="24">
+      <c r="AC57" s="17">
         <v>-1.6168682910373999</v>
       </c>
-      <c r="AD57" s="24">
+      <c r="AD57" s="17">
         <v>0.80588697345361004</v>
       </c>
-      <c r="AE57" s="24">
+      <c r="AE57" s="17">
         <v>1.9227571572501201</v>
       </c>
-      <c r="AF57" s="24">
+      <c r="AF57" s="17">
         <v>2.2084297087015701</v>
       </c>
-      <c r="AG57" s="24">
+      <c r="AG57" s="17">
         <v>-1.7942535995732001</v>
       </c>
-      <c r="AH57" s="24">
+      <c r="AH57" s="17">
         <v>3.6471865038370899</v>
       </c>
-      <c r="AI57" s="24">
+      <c r="AI57" s="17">
         <v>3.2516814576655002</v>
       </c>
-      <c r="AJ57" s="24">
+      <c r="AJ57" s="17">
         <v>3.2315699544530001</v>
       </c>
-      <c r="AK57" s="24">
+      <c r="AK57" s="17">
         <v>3.0087110903207299</v>
       </c>
-      <c r="AL57" s="24">
+      <c r="AL57" s="17">
         <v>2.9673710818105601</v>
       </c>
-      <c r="AM57" s="24">
+      <c r="AM57" s="17">
         <v>2.9902037174678102</v>
       </c>
-      <c r="AN57" s="24">
+      <c r="AN57" s="17">
         <v>2.9752975697125299</v>
       </c>
-      <c r="AO57" s="24">
+      <c r="AO57" s="17">
         <v>2.98677680136332</v>
       </c>
-      <c r="AP57" s="25">
+      <c r="AP57" s="18">
         <v>2.9856710859071001</v>
       </c>
     </row>
@@ -9593,7 +9593,7 @@
         <v>2.4923402509594599</v>
       </c>
       <c r="O66" s="39">
-        <v>2.8668090063637601</v>
+        <v>2.8668090063637499</v>
       </c>
       <c r="P66" s="39">
         <v>4.26822880623196</v>
@@ -9656,7 +9656,7 @@
         <v>3.4628579213567101</v>
       </c>
       <c r="AJ66" s="39">
-        <v>2.8129683814889499</v>
+        <v>2.8129683814889401</v>
       </c>
       <c r="AK66" s="39">
         <v>3.01480553067409</v>
@@ -9852,7 +9852,7 @@
         <v>5.3296044139272603</v>
       </c>
       <c r="P68" s="36">
-        <v>6.4957053632020996</v>
+        <v>6.4957053632020898</v>
       </c>
       <c r="Q68" s="36">
         <v>6.1709987363541003</v>
@@ -9941,124 +9941,124 @@
         <v>126</v>
       </c>
       <c r="C69" s="36">
-        <v>5.1005458032749198</v>
+        <v>1.9393753164187499</v>
       </c>
       <c r="D69" s="36">
-        <v>1.52381444113089</v>
+        <v>-0.97872303315039999</v>
       </c>
       <c r="E69" s="36">
-        <v>0.93771730733918002</v>
+        <v>-1.6761164416089001</v>
       </c>
       <c r="F69" s="36">
-        <v>0.77643322321676</v>
+        <v>-2.1252105586357999</v>
       </c>
       <c r="G69" s="36">
-        <v>1.9098506694427799</v>
+        <v>0.36362664761303998</v>
       </c>
       <c r="H69" s="36">
-        <v>5.2382925252367096</v>
+        <v>4.7713893889096797</v>
       </c>
       <c r="I69" s="36">
-        <v>4.8029460998136404</v>
+        <v>3.5988358512194401</v>
       </c>
       <c r="J69" s="36">
-        <v>2.6021851191386198</v>
+        <v>0.89381773412789001</v>
       </c>
       <c r="K69" s="36">
-        <v>4.0383951632831199</v>
+        <v>2.8269358685208998</v>
       </c>
       <c r="L69" s="36">
-        <v>4.1456823399497003</v>
+        <v>3.00804448960085</v>
       </c>
       <c r="M69" s="36">
-        <v>2.7494064688787598</v>
+        <v>1.3343455935284501</v>
       </c>
       <c r="N69" s="36">
-        <v>5.7114129935441396</v>
+        <v>4.7615471401552698</v>
       </c>
       <c r="O69" s="36">
-        <v>4.4804912855699301</v>
+        <v>4.2963222080505297</v>
       </c>
       <c r="P69" s="36">
-        <v>4.81325192853435</v>
+        <v>5.0352472918301796</v>
       </c>
       <c r="Q69" s="36">
-        <v>5.97106551365904</v>
+        <v>6.1801702749040297</v>
       </c>
       <c r="R69" s="36">
-        <v>7.3134802826152203</v>
+        <v>7.6279549661253903</v>
       </c>
       <c r="S69" s="36">
-        <v>5.9065553594705804</v>
+        <v>5.8064818365040303</v>
       </c>
       <c r="T69" s="36">
-        <v>7.5919918646257996</v>
+        <v>7.71057565221055</v>
       </c>
       <c r="U69" s="36">
-        <v>4.97623886889434</v>
+        <v>5.2895020638584196</v>
       </c>
       <c r="V69" s="36">
-        <v>5.2939046754427102</v>
+        <v>4.7070661467336699</v>
       </c>
       <c r="W69" s="36">
-        <v>7.3029072735384899</v>
+        <v>7.3702368242450698</v>
       </c>
       <c r="X69" s="36">
-        <v>6.7447697046087196</v>
+        <v>6.8513009454532199</v>
       </c>
       <c r="Y69" s="36">
-        <v>2.0309055188766099</v>
+        <v>2.8523847178526198</v>
       </c>
       <c r="Z69" s="36">
-        <v>5.8655315496930998</v>
+        <v>6.3752107719339097</v>
       </c>
       <c r="AA69" s="36">
-        <v>5.5378748893916097</v>
+        <v>5.7944222175659599</v>
       </c>
       <c r="AB69" s="36">
-        <v>5.7119978349337499</v>
+        <v>5.8070869661126103</v>
       </c>
       <c r="AC69" s="36">
-        <v>3.7780139794131902</v>
+        <v>3.2706303248280499</v>
       </c>
       <c r="AD69" s="36">
-        <v>5.0587585651177802</v>
+        <v>4.8356193561085599</v>
       </c>
       <c r="AE69" s="36">
-        <v>5.99968409956361</v>
+        <v>5.8143099733358596</v>
       </c>
       <c r="AF69" s="36">
-        <v>6.2970462935542901</v>
+        <v>6.0150984639902196</v>
       </c>
       <c r="AG69" s="36">
-        <v>0.86147796229192997</v>
+        <v>0.98839960816532002</v>
       </c>
       <c r="AH69" s="36">
-        <v>6.5619510723797196</v>
+        <v>6.50983868671449</v>
       </c>
       <c r="AI69" s="36">
-        <v>5.1199131023277404</v>
+        <v>5.3583981101594702</v>
       </c>
       <c r="AJ69" s="36">
-        <v>5.3622348741888599</v>
+        <v>5.5153010489488903</v>
       </c>
       <c r="AK69" s="36">
-        <v>5.8245423284372198</v>
+        <v>5.9301198313503001</v>
       </c>
       <c r="AL69" s="36">
-        <v>6.2446416713180497</v>
+        <v>6.33043971876491</v>
       </c>
       <c r="AM69" s="36">
-        <v>6.2063078546649599</v>
+        <v>6.32816969831776</v>
       </c>
       <c r="AN69" s="36">
-        <v>6.2339598227305002</v>
+        <v>6.3086421012314498</v>
       </c>
       <c r="AO69" s="36">
-        <v>6.1854456749726499</v>
+        <v>6.2337238599191602</v>
       </c>
       <c r="AP69" s="37">
-        <v>6.1388608250312098</v>
+        <v>6.2261099102354702</v>
       </c>
     </row>
     <row r="70" spans="1:42" x14ac:dyDescent="0.35">
@@ -10427,7 +10427,7 @@
         <v>4.78247573674739</v>
       </c>
       <c r="AK72" s="36">
-        <v>5.2443886367369297</v>
+        <v>5.2443886367369199</v>
       </c>
       <c r="AL72" s="36">
         <v>5.6249081805888999</v>
@@ -10965,109 +10965,109 @@
         <v>134</v>
       </c>
       <c r="C77" s="36">
-        <v>-1.2616452849674</v>
+        <v>-2.1359082904693998</v>
       </c>
       <c r="D77" s="36">
-        <v>3.87501923194846</v>
+        <v>3.1698877813373998</v>
       </c>
       <c r="E77" s="36">
-        <v>3.0398952158790702</v>
+        <v>2.6634066848897402</v>
       </c>
       <c r="F77" s="36">
-        <v>4.53869960348469</v>
+        <v>5.0460128826323203</v>
       </c>
       <c r="G77" s="36">
-        <v>4.8806953595740596</v>
+        <v>5.6758682733754604</v>
       </c>
       <c r="H77" s="36">
-        <v>3.7200041145140199</v>
+        <v>3.694444294508</v>
       </c>
       <c r="I77" s="36">
-        <v>2.6582984463614299</v>
+        <v>2.96388659846532</v>
       </c>
       <c r="J77" s="36">
-        <v>4.7974853860644497</v>
+        <v>4.6262718146593702</v>
       </c>
       <c r="K77" s="36">
-        <v>1.2264502938276001</v>
+        <v>1.3268955891802201</v>
       </c>
       <c r="L77" s="36">
-        <v>-1.2766251071507999</v>
+        <v>-0.79714510116610005</v>
       </c>
       <c r="M77" s="36">
-        <v>3.1614819176799802</v>
+        <v>3.1074808411489001</v>
       </c>
       <c r="N77" s="36">
-        <v>0.89093647492494998</v>
+        <v>0.62645831499930005</v>
       </c>
       <c r="O77" s="36">
-        <v>0.29992786610416</v>
+        <v>1.17357023143029</v>
       </c>
       <c r="P77" s="36">
-        <v>2.1412729320473902</v>
+        <v>2.98768159102202</v>
       </c>
       <c r="Q77" s="36">
-        <v>7.2553473254613401</v>
+        <v>6.2044183532317199</v>
       </c>
       <c r="R77" s="36">
-        <v>5.1191077348678302</v>
+        <v>4.5965358412975901</v>
       </c>
       <c r="S77" s="36">
-        <v>5.6621812355341499</v>
+        <v>5.2201897664279997</v>
       </c>
       <c r="T77" s="36">
-        <v>6.7492655714611898</v>
+        <v>6.5344180281070896</v>
       </c>
       <c r="U77" s="36">
-        <v>5.0049584065743904</v>
+        <v>4.9756175257829698</v>
       </c>
       <c r="V77" s="36">
-        <v>-0.9526430365595</v>
+        <v>-0.7166924274141</v>
       </c>
       <c r="W77" s="36">
-        <v>6.66454093922792</v>
+        <v>7.4487503558366601</v>
       </c>
       <c r="X77" s="36">
-        <v>4.9340127171839097</v>
+        <v>5.0063137858785396</v>
       </c>
       <c r="Y77" s="36">
-        <v>2.6561703388584501</v>
+        <v>2.3584078786129199</v>
       </c>
       <c r="Z77" s="36">
-        <v>3.3246403410336498</v>
+        <v>3.5195254366331499</v>
       </c>
       <c r="AA77" s="36">
-        <v>0.54808149458615996</v>
+        <v>0.96679799313604997</v>
       </c>
       <c r="AB77" s="36">
-        <v>-1.1320447311821999</v>
+        <v>-0.66699187965499995</v>
       </c>
       <c r="AC77" s="36">
-        <v>-2.3831125478008</v>
+        <v>-1.2658904750721001</v>
       </c>
       <c r="AD77" s="36">
-        <v>0.78399225052518995</v>
+        <v>1.8007786905401</v>
       </c>
       <c r="AE77" s="36">
-        <v>0.51255154190001995</v>
+        <v>1.49939776541347</v>
       </c>
       <c r="AF77" s="36">
-        <v>-4.3635545137500002E-2</v>
+        <v>0.92538201104216</v>
       </c>
       <c r="AG77" s="36">
-        <v>-6.2188093836435998</v>
+        <v>-5.5994775834585004</v>
       </c>
       <c r="AH77" s="36">
-        <v>7.4975057224951103</v>
+        <v>7.6688407074014</v>
       </c>
       <c r="AI77" s="36">
-        <v>4.14836679548565</v>
+        <v>4.0522489200520804</v>
       </c>
       <c r="AJ77" s="36">
-        <v>1.2270249586306801</v>
+        <v>1.12741186368094</v>
       </c>
       <c r="AK77" s="36">
-        <v>2.2822219454214299</v>
+        <v>2.2225496935337001</v>
       </c>
       <c r="AL77" s="36">
         <v>2.2290512463679799</v>
@@ -11082,7 +11082,7 @@
         <v>2.3578092658842702</v>
       </c>
       <c r="AP77" s="37">
-        <v>2.3827195037159798</v>
+        <v>2.3707705383518398</v>
       </c>
     </row>
     <row r="78" spans="1:42" x14ac:dyDescent="0.35">
@@ -11352,121 +11352,121 @@
         <v>1.6081279450301</v>
       </c>
       <c r="D80" s="42">
-        <v>4.2134606338846101</v>
+        <v>6.61456906932675</v>
       </c>
       <c r="E80" s="42">
-        <v>0.95642310217904003</v>
+        <v>0.32034852168644001</v>
       </c>
       <c r="F80" s="42">
-        <v>-0.48117149217150001</v>
+        <v>-1.5709404409645999</v>
       </c>
       <c r="G80" s="42">
-        <v>1.1457041334562199</v>
+        <v>1.6125869930502701</v>
       </c>
       <c r="H80" s="42">
-        <v>0.37686403764635001</v>
+        <v>-0.43417984110919999</v>
       </c>
       <c r="I80" s="42">
-        <v>4.11314957003444</v>
+        <v>4.1462929812328104</v>
       </c>
       <c r="J80" s="42">
-        <v>2.0666517273837299</v>
+        <v>1.61475228937654</v>
       </c>
       <c r="K80" s="42">
-        <v>3.3535420653546799</v>
+        <v>3.8211115418943402</v>
       </c>
       <c r="L80" s="42">
-        <v>1.34126821961514</v>
+        <v>1.7827896253639099</v>
       </c>
       <c r="M80" s="42">
-        <v>5.15813752373559</v>
+        <v>4.9615696239548601</v>
       </c>
       <c r="N80" s="42">
-        <v>4.9737440531241202</v>
+        <v>4.0228097065885304</v>
       </c>
       <c r="O80" s="42">
-        <v>8.4251636408366792</v>
+        <v>4.6121012716809604</v>
       </c>
       <c r="P80" s="42">
-        <v>9.0124010601919107</v>
+        <v>8.7071323138824308</v>
       </c>
       <c r="Q80" s="42">
-        <v>8.1480337319912799</v>
+        <v>6.6645619896377504</v>
       </c>
       <c r="R80" s="42">
-        <v>7.7455697212571897</v>
+        <v>8.2174165766427105</v>
       </c>
       <c r="S80" s="42">
-        <v>4.6319572589422897</v>
+        <v>3.2440240907526201</v>
       </c>
       <c r="T80" s="42">
-        <v>6.4207141190534198</v>
+        <v>5.8164111955840099</v>
       </c>
       <c r="U80" s="42">
-        <v>5.2329085952933303</v>
+        <v>3.8636723130527502</v>
       </c>
       <c r="V80" s="42">
-        <v>3.81278608041527</v>
+        <v>0.39751928247315998</v>
       </c>
       <c r="W80" s="42">
-        <v>7.3082904644063502</v>
+        <v>4.1305002133057904</v>
       </c>
       <c r="X80" s="42">
-        <v>0.87579286329814998</v>
+        <v>-2.8019492357911999</v>
       </c>
       <c r="Y80" s="42">
-        <v>12.5057549492962</v>
+        <v>18.435875573636501</v>
       </c>
       <c r="Z80" s="42">
-        <v>2.56058398463944</v>
+        <v>0.44169811789740998</v>
       </c>
       <c r="AA80" s="42">
-        <v>3.4430348559538602</v>
+        <v>0.64886460496241005</v>
       </c>
       <c r="AB80" s="42">
-        <v>2.2655186306319899</v>
+        <v>1.82600826083538</v>
       </c>
       <c r="AC80" s="42">
-        <v>-0.66068176725149996</v>
+        <v>0.18572876061099</v>
       </c>
       <c r="AD80" s="42">
-        <v>3.1977733718993102</v>
+        <v>5.5468650846117296</v>
       </c>
       <c r="AE80" s="42">
-        <v>1.77067890285064</v>
+        <v>1.5951875922384899</v>
       </c>
       <c r="AF80" s="42">
-        <v>0.60235985757846</v>
+        <v>-1.0734457753874</v>
       </c>
       <c r="AG80" s="42">
-        <v>-4.6089026558407999</v>
+        <v>-7.7794369245453998</v>
       </c>
       <c r="AH80" s="42">
-        <v>4.7815438225206899</v>
+        <v>6.0373678828605897</v>
       </c>
       <c r="AI80" s="42">
-        <v>2.2071400290448899</v>
+        <v>1.05216922765319</v>
       </c>
       <c r="AJ80" s="42">
-        <v>4.0144809266369403</v>
+        <v>4.89843873495672</v>
       </c>
       <c r="AK80" s="42">
-        <v>3.2813746880444499</v>
+        <v>3.5928521588085198</v>
       </c>
       <c r="AL80" s="42">
-        <v>3.1896620964600602</v>
+        <v>3.4445327586067802</v>
       </c>
       <c r="AM80" s="42">
-        <v>3.0380408275034698</v>
+        <v>3.1000118871821098</v>
       </c>
       <c r="AN80" s="42">
-        <v>2.9707928129092198</v>
+        <v>2.9755277141304801</v>
       </c>
       <c r="AO80" s="42">
-        <v>2.99557218061135</v>
+        <v>3.0150114449173899</v>
       </c>
       <c r="AP80" s="43">
-        <v>3.0950184626453701</v>
+        <v>3.2252914821998302</v>
       </c>
     </row>
     <row r="81" spans="1:42" x14ac:dyDescent="0.35">
@@ -11608,121 +11608,121 @@
         <v>1.64559981057723</v>
       </c>
       <c r="D82" s="36">
-        <v>1.2769385166123099</v>
+        <v>0.99910543479063996</v>
       </c>
       <c r="E82" s="36">
-        <v>-0.29502580353239999</v>
+        <v>9.1402869346929996E-2</v>
       </c>
       <c r="F82" s="36">
-        <v>1.57849136067991</v>
+        <v>1.57698795442486</v>
       </c>
       <c r="G82" s="36">
-        <v>3.2331895801705199</v>
+        <v>2.7816081283845602</v>
       </c>
       <c r="H82" s="36">
-        <v>3.6813623152840802</v>
+        <v>3.4107093121467602</v>
       </c>
       <c r="I82" s="36">
-        <v>5.4254476565578402</v>
+        <v>5.2220547234419898</v>
       </c>
       <c r="J82" s="36">
-        <v>3.7440039758196302</v>
+        <v>3.6177278798426</v>
       </c>
       <c r="K82" s="36">
-        <v>4.2676841477790601</v>
+        <v>4.0104367911369403</v>
       </c>
       <c r="L82" s="36">
-        <v>3.91095325833217</v>
+        <v>3.4407943335106701</v>
       </c>
       <c r="M82" s="36">
-        <v>3.8473422060370401</v>
+        <v>4.0825525696087404</v>
       </c>
       <c r="N82" s="36">
-        <v>4.2783537187300702</v>
+        <v>4.6208713484935</v>
       </c>
       <c r="O82" s="36">
-        <v>3.2071138086688702</v>
+        <v>4.9950845833975297</v>
       </c>
       <c r="P82" s="36">
-        <v>3.6646345433207301</v>
+        <v>4.6244951782282699</v>
       </c>
       <c r="Q82" s="36">
-        <v>4.66099840826588</v>
+        <v>5.6552839874768397</v>
       </c>
       <c r="R82" s="36">
-        <v>4.9360617222433003</v>
+        <v>5.2984650014137697</v>
       </c>
       <c r="S82" s="36">
-        <v>5.9789562045557396</v>
+        <v>6.1103811798821903</v>
       </c>
       <c r="T82" s="36">
-        <v>5.9361329745797198</v>
+        <v>6.1819471031345001</v>
       </c>
       <c r="U82" s="36">
-        <v>5.2178731523348398</v>
+        <v>5.5760331093116804</v>
       </c>
       <c r="V82" s="36">
-        <v>2.6166000906441198</v>
+        <v>3.7017885929060701</v>
       </c>
       <c r="W82" s="36">
-        <v>5.0424593819856796</v>
+        <v>6.2747128475676899</v>
       </c>
       <c r="X82" s="36">
-        <v>3.6045961064428602</v>
+        <v>3.86169373635685</v>
       </c>
       <c r="Y82" s="36">
-        <v>2.82152239579269</v>
+        <v>3.2882191153399698</v>
       </c>
       <c r="Z82" s="36">
-        <v>4.2506694146490602</v>
+        <v>4.3884591404667201</v>
       </c>
       <c r="AA82" s="36">
-        <v>3.9511775437147301</v>
+        <v>4.44482543161077</v>
       </c>
       <c r="AB82" s="36">
-        <v>4.0039464531520901</v>
+        <v>3.7497537650185402</v>
       </c>
       <c r="AC82" s="36">
-        <v>3.4727907318691602</v>
+        <v>2.53771775209644</v>
       </c>
       <c r="AD82" s="36">
-        <v>3.6037042669680202</v>
+        <v>3.0844056745849602</v>
       </c>
       <c r="AE82" s="36">
-        <v>4.1438435319483702</v>
+        <v>3.7370675942473102</v>
       </c>
       <c r="AF82" s="36">
-        <v>4.0427464316846198</v>
+        <v>3.7093057395733302</v>
       </c>
       <c r="AG82" s="36">
-        <v>-0.53896864432830005</v>
+        <v>-0.7617099026584</v>
       </c>
       <c r="AH82" s="36">
-        <v>4.8818420008640597</v>
+        <v>4.6588314940865603</v>
       </c>
       <c r="AI82" s="36">
-        <v>4.4186584567600402</v>
+        <v>4.2080076517215304</v>
       </c>
       <c r="AJ82" s="36">
-        <v>3.5317472335707398</v>
+        <v>3.47610628664758</v>
       </c>
       <c r="AK82" s="36">
-        <v>4.5613278498011001</v>
+        <v>4.2876577114590502</v>
       </c>
       <c r="AL82" s="36">
-        <v>4.7025113508270602</v>
+        <v>4.4009988653253398</v>
       </c>
       <c r="AM82" s="36">
-        <v>4.8004107360442196</v>
+        <v>4.4905310554437303</v>
       </c>
       <c r="AN82" s="36">
-        <v>4.9583525315010197</v>
+        <v>4.6242367676830103</v>
       </c>
       <c r="AO82" s="36">
-        <v>5.0354377500002299</v>
+        <v>4.6958418919095397</v>
       </c>
       <c r="AP82" s="37">
-        <v>4.8114684425805399</v>
+        <v>4.4997491665564198</v>
       </c>
     </row>
     <row r="83" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11733,7 +11733,7 @@
         <v>140</v>
       </c>
       <c r="C83" s="39">
-        <v>2.9989898353306099</v>
+        <v>2.9989898353306002</v>
       </c>
       <c r="D83" s="39">
         <v>2.1114844673680202</v>
@@ -11802,7 +11802,7 @@
         <v>3.3307212245430202</v>
       </c>
       <c r="Z83" s="39">
-        <v>3.5061836559561401</v>
+        <v>3.5061836559561499</v>
       </c>
       <c r="AA83" s="39">
         <v>3.6667429884614</v>
@@ -11861,124 +11861,124 @@
         <v>141</v>
       </c>
       <c r="C84" s="42">
-        <v>1.14371972028169</v>
+        <v>1.0248953995075101</v>
       </c>
       <c r="D84" s="42">
-        <v>0.53468259049841005</v>
+        <v>0.45237935137479002</v>
       </c>
       <c r="E84" s="42">
-        <v>-0.75967536160390003</v>
+        <v>-0.56113877480819996</v>
       </c>
       <c r="F84" s="42">
-        <v>1.6490486422044099</v>
+        <v>1.52937038160437</v>
       </c>
       <c r="G84" s="42">
-        <v>1.90405944714932</v>
+        <v>0.99192846415730995</v>
       </c>
       <c r="H84" s="42">
-        <v>6.1432765588348897</v>
+        <v>5.9538339828941398</v>
       </c>
       <c r="I84" s="42">
-        <v>4.9579545574715302</v>
+        <v>5.0326315683578198</v>
       </c>
       <c r="J84" s="42">
-        <v>3.7353031449328098</v>
+        <v>3.7399797303628102</v>
       </c>
       <c r="K84" s="42">
-        <v>4.0364005576553099</v>
+        <v>3.7835617536916701</v>
       </c>
       <c r="L84" s="42">
-        <v>4.1539038387829201</v>
+        <v>4.1824403580421796</v>
       </c>
       <c r="M84" s="42">
-        <v>4.0565561371333096</v>
+        <v>4.0473900521413304</v>
       </c>
       <c r="N84" s="42">
-        <v>7.8124514931689797</v>
+        <v>7.6728934625680196</v>
       </c>
       <c r="O84" s="42">
-        <v>4.2123177273558596</v>
+        <v>4.2288295448378301</v>
       </c>
       <c r="P84" s="42">
-        <v>5.3379085621894804</v>
+        <v>5.4297472895170902</v>
       </c>
       <c r="Q84" s="42">
-        <v>6.6586233011662399</v>
+        <v>6.6801076136038704</v>
       </c>
       <c r="R84" s="42">
-        <v>7.0705406202411396</v>
+        <v>7.0800504835054499</v>
       </c>
       <c r="S84" s="42">
-        <v>6.45653721934712</v>
+        <v>6.5410312248154403</v>
       </c>
       <c r="T84" s="42">
-        <v>6.74308042768281</v>
+        <v>6.8384371273877598</v>
       </c>
       <c r="U84" s="42">
-        <v>6.4928336889620297</v>
+        <v>6.56968209949427</v>
       </c>
       <c r="V84" s="42">
-        <v>2.8569746881412401</v>
+        <v>3.2617376223169599</v>
       </c>
       <c r="W84" s="42">
-        <v>6.5401034692475299</v>
+        <v>6.7872111557858004</v>
       </c>
       <c r="X84" s="42">
-        <v>4.2582438340023696</v>
+        <v>4.3453822035950997</v>
       </c>
       <c r="Y84" s="42">
-        <v>-1.7729167876400002E-2</v>
+        <v>0.51088052181648003</v>
       </c>
       <c r="Z84" s="42">
-        <v>5.9158380367832404</v>
+        <v>5.85549112399175</v>
       </c>
       <c r="AA84" s="42">
-        <v>6.3977159601913902</v>
+        <v>6.2880306589592498</v>
       </c>
       <c r="AB84" s="42">
-        <v>5.63345310493483</v>
+        <v>5.4675538741788303</v>
       </c>
       <c r="AC84" s="42">
-        <v>4.2703349178694001</v>
+        <v>4.2426706765968802</v>
       </c>
       <c r="AD84" s="42">
-        <v>4.9791637704513603</v>
+        <v>4.8937487044274102</v>
       </c>
       <c r="AE84" s="42">
-        <v>4.2249737143644399</v>
+        <v>4.2139665256261596</v>
       </c>
       <c r="AF84" s="42">
-        <v>4.7880586021654903</v>
+        <v>4.59990737351698</v>
       </c>
       <c r="AG84" s="42">
-        <v>0.79194297030659999</v>
+        <v>0.59731302694336996</v>
       </c>
       <c r="AH84" s="42">
-        <v>4.5636666343181602</v>
+        <v>4.5655764334279496</v>
       </c>
       <c r="AI84" s="42">
-        <v>4.0578071098267099</v>
+        <v>4.0243822590984504</v>
       </c>
       <c r="AJ84" s="42">
-        <v>4.8109622380456001</v>
+        <v>4.7671668456830902</v>
       </c>
       <c r="AK84" s="42">
-        <v>5.6821071921880799</v>
+        <v>5.5979866651235204</v>
       </c>
       <c r="AL84" s="42">
-        <v>5.7032151555039299</v>
+        <v>5.6429002858663404</v>
       </c>
       <c r="AM84" s="42">
-        <v>5.6405381325143402</v>
+        <v>5.5931690928871403</v>
       </c>
       <c r="AN84" s="42">
-        <v>6.0356750256770901</v>
+        <v>5.9822868563015499</v>
       </c>
       <c r="AO84" s="42">
-        <v>6.0301723148528197</v>
+        <v>5.9840760672940796</v>
       </c>
       <c r="AP84" s="43">
-        <v>5.8181946419785699</v>
+        <v>5.7599255663245899</v>
       </c>
     </row>
     <row r="85" spans="1:42" x14ac:dyDescent="0.35">
@@ -12117,124 +12117,124 @@
         <v>143</v>
       </c>
       <c r="C86" s="36">
-        <v>1.9999491231853701</v>
+        <v>2.04778071871376</v>
       </c>
       <c r="D86" s="36">
-        <v>1.4652401567554101</v>
+        <v>1.49597897084047</v>
       </c>
       <c r="E86" s="36">
-        <v>1.4205478872425901</v>
+        <v>1.4113772321888001</v>
       </c>
       <c r="F86" s="36">
-        <v>1.21545443824765</v>
+        <v>1.23399721358408</v>
       </c>
       <c r="G86" s="36">
-        <v>2.37041023375015</v>
+        <v>2.5607272310746798</v>
       </c>
       <c r="H86" s="36">
-        <v>3.2544155735124298</v>
+        <v>3.2587345945287902</v>
       </c>
       <c r="I86" s="36">
-        <v>5.4918324164043204</v>
+        <v>5.4829676612525002</v>
       </c>
       <c r="J86" s="36">
-        <v>3.4222134998625702</v>
+        <v>3.4174127623250201</v>
       </c>
       <c r="K86" s="36">
-        <v>5.2430980438930099</v>
+        <v>5.3083621842844897</v>
       </c>
       <c r="L86" s="36">
-        <v>3.3738428013100501</v>
+        <v>3.3591730314776602</v>
       </c>
       <c r="M86" s="36">
-        <v>3.9476367432993702</v>
+        <v>3.9482150471194002</v>
       </c>
       <c r="N86" s="36">
-        <v>4.1709532870823196</v>
+        <v>4.1576304583557198</v>
       </c>
       <c r="O86" s="36">
-        <v>5.8573209981484897</v>
+        <v>5.8728660205466898</v>
       </c>
       <c r="P86" s="36">
-        <v>5.3167365448805199</v>
+        <v>5.2976873348683604</v>
       </c>
       <c r="Q86" s="36">
-        <v>5.8975234155995402</v>
+        <v>5.8840906687957704</v>
       </c>
       <c r="R86" s="36">
-        <v>5.5792282534448301</v>
+        <v>5.5592971924267296</v>
       </c>
       <c r="S86" s="36">
-        <v>5.7439819369081402</v>
+        <v>5.7174384479029596</v>
       </c>
       <c r="T86" s="36">
-        <v>6.06427291630086</v>
+        <v>6.0355140971594299</v>
       </c>
       <c r="U86" s="36">
-        <v>5.7263737815412501</v>
+        <v>5.7001096564320903</v>
       </c>
       <c r="V86" s="36">
-        <v>4.7436319591076899</v>
+        <v>4.6836849082599104</v>
       </c>
       <c r="W86" s="36">
-        <v>6.4720211622776196</v>
+        <v>6.4188677254944597</v>
       </c>
       <c r="X86" s="36">
-        <v>3.6975281512497999</v>
+        <v>3.6710941131869101</v>
       </c>
       <c r="Y86" s="36">
-        <v>4.2466167767274001</v>
+        <v>4.1998780368036401</v>
       </c>
       <c r="Z86" s="36">
-        <v>4.3103128927635899</v>
+        <v>4.2995927694291103</v>
       </c>
       <c r="AA86" s="36">
-        <v>4.56021442288705</v>
+        <v>4.5582778747436299</v>
       </c>
       <c r="AB86" s="36">
-        <v>3.6646021645851499</v>
+        <v>3.6747926698589199</v>
       </c>
       <c r="AC86" s="36">
-        <v>2.1196387433399302</v>
+        <v>2.0966051360639799</v>
       </c>
       <c r="AD86" s="36">
-        <v>2.59673718427385</v>
+        <v>2.5837707534677201</v>
       </c>
       <c r="AE86" s="36">
-        <v>3.46942404825923</v>
+        <v>3.4612979713154801</v>
       </c>
       <c r="AF86" s="36">
-        <v>3.5942612667582501</v>
+        <v>3.6245692744166802</v>
       </c>
       <c r="AG86" s="36">
-        <v>-0.72352023266260002</v>
+        <v>-0.69506426908779995</v>
       </c>
       <c r="AH86" s="36">
-        <v>4.2509028253117904</v>
+        <v>4.2460840469657697</v>
       </c>
       <c r="AI86" s="36">
-        <v>4.36920893246565</v>
+        <v>4.3819531135838998</v>
       </c>
       <c r="AJ86" s="36">
-        <v>3.62417640148354</v>
+        <v>3.61903267607167</v>
       </c>
       <c r="AK86" s="36">
-        <v>4.1521475577011904</v>
+        <v>4.1529034246765297</v>
       </c>
       <c r="AL86" s="36">
-        <v>4.2958244159426</v>
+        <v>4.2922391416064398</v>
       </c>
       <c r="AM86" s="36">
-        <v>4.4296230152513498</v>
+        <v>4.4254353242044102</v>
       </c>
       <c r="AN86" s="36">
-        <v>4.4619197527735004</v>
+        <v>4.4543883641731101</v>
       </c>
       <c r="AO86" s="36">
-        <v>4.5474253217004401</v>
+        <v>4.53924291277088</v>
       </c>
       <c r="AP86" s="37">
-        <v>4.3772958345843298</v>
+        <v>4.3727536759610803</v>
       </c>
     </row>
     <row r="87" spans="1:42" x14ac:dyDescent="0.35">
@@ -12245,124 +12245,124 @@
         <v>144</v>
       </c>
       <c r="C87" s="36">
-        <v>7.18914913950523</v>
+        <v>7.0822580564647</v>
       </c>
       <c r="D87" s="36">
-        <v>5.4082196363771899</v>
+        <v>5.6265754281692804</v>
       </c>
       <c r="E87" s="36">
-        <v>3.4269724924368599</v>
+        <v>3.43062345282239</v>
       </c>
       <c r="F87" s="36">
-        <v>2.55655010861748</v>
+        <v>2.5828882043644499</v>
       </c>
       <c r="G87" s="36">
-        <v>3.26088689684136</v>
+        <v>3.2929973283123299</v>
       </c>
       <c r="H87" s="36">
-        <v>5.3818509841793896</v>
+        <v>5.3906334222597598</v>
       </c>
       <c r="I87" s="36">
-        <v>6.3576021685060597</v>
+        <v>6.34411440737001</v>
       </c>
       <c r="J87" s="36">
-        <v>3.7011291972306899</v>
+        <v>3.7458081679463699</v>
       </c>
       <c r="K87" s="36">
-        <v>0.79534281560626996</v>
+        <v>0.81655643982530002</v>
       </c>
       <c r="L87" s="36">
-        <v>4.7168224718868199</v>
+        <v>4.6784672318301102</v>
       </c>
       <c r="M87" s="36">
-        <v>4.78587608192161</v>
+        <v>4.7592410306349402</v>
       </c>
       <c r="N87" s="36">
-        <v>4.1976106494919803</v>
+        <v>4.1954114320392897</v>
       </c>
       <c r="O87" s="36">
-        <v>4.6833087521918699</v>
+        <v>4.6749653976478003</v>
       </c>
       <c r="P87" s="36">
-        <v>6.8900816049271496</v>
+        <v>6.8576851632933096</v>
       </c>
       <c r="Q87" s="36">
-        <v>6.7993582699558601</v>
+        <v>6.8043752057249698</v>
       </c>
       <c r="R87" s="36">
-        <v>7.0634908857233301</v>
+        <v>7.0283550565336403</v>
       </c>
       <c r="S87" s="36">
-        <v>7.2741946521872398</v>
+        <v>7.2438590901773203</v>
       </c>
       <c r="T87" s="36">
-        <v>8.1537435348822704</v>
+        <v>8.1615996676454508</v>
       </c>
       <c r="U87" s="36">
-        <v>4.4280727870052097</v>
+        <v>4.4565129467018796</v>
       </c>
       <c r="V87" s="36">
-        <v>4.75144476409685</v>
+        <v>4.7861740466337901</v>
       </c>
       <c r="W87" s="36">
-        <v>7.6176011733968796</v>
+        <v>7.62139927879441</v>
       </c>
       <c r="X87" s="36">
-        <v>5.7522510574450099</v>
+        <v>5.72523329742305</v>
       </c>
       <c r="Y87" s="36">
-        <v>4.6259557138108498</v>
+        <v>4.6140317155526098</v>
       </c>
       <c r="Z87" s="36">
-        <v>5.12929187762672</v>
+        <v>5.1215789859440299</v>
       </c>
       <c r="AA87" s="36">
-        <v>5.9431303299751601</v>
+        <v>5.9223236441036597</v>
       </c>
       <c r="AB87" s="36">
-        <v>5.6725013378385896</v>
+        <v>5.6405588148556598</v>
       </c>
       <c r="AC87" s="36">
-        <v>6.9532447500105299</v>
+        <v>6.9214660359227604</v>
       </c>
       <c r="AD87" s="36">
-        <v>5.8808440089693903</v>
+        <v>5.8522106569007102</v>
       </c>
       <c r="AE87" s="36">
-        <v>5.5391570733507898</v>
+        <v>5.4982604170508296</v>
       </c>
       <c r="AF87" s="36">
-        <v>4.04681930881992</v>
+        <v>3.9915704576042801</v>
       </c>
       <c r="AG87" s="36">
-        <v>-3.1573326339218002</v>
+        <v>-3.2434497394349</v>
       </c>
       <c r="AH87" s="36">
-        <v>6.43821276707693</v>
+        <v>6.4366916099906897</v>
       </c>
       <c r="AI87" s="36">
-        <v>5.36523030661467</v>
+        <v>5.3641190302633701</v>
       </c>
       <c r="AJ87" s="36">
-        <v>4.7951795898433396</v>
+        <v>4.7955117311698396</v>
       </c>
       <c r="AK87" s="36">
-        <v>5.5258157643016403</v>
+        <v>5.5264399228252703</v>
       </c>
       <c r="AL87" s="36">
-        <v>5.5737592742377799</v>
+        <v>5.5743707023453704</v>
       </c>
       <c r="AM87" s="36">
-        <v>5.5584459256234604</v>
+        <v>5.5590344577145396</v>
       </c>
       <c r="AN87" s="36">
-        <v>5.5657251169329802</v>
+        <v>5.5662952458716601</v>
       </c>
       <c r="AO87" s="36">
-        <v>5.5844810302348096</v>
+        <v>5.5850349043222902</v>
       </c>
       <c r="AP87" s="37">
-        <v>5.56164354747595</v>
+        <v>5.5622331753681298</v>
       </c>
     </row>
     <row r="88" spans="1:42" x14ac:dyDescent="0.35">
@@ -12501,124 +12501,124 @@
         <v>146</v>
       </c>
       <c r="C89" s="36">
-        <v>2.1574408708479602</v>
+        <v>2.5178679256766099</v>
       </c>
       <c r="D89" s="36">
-        <v>4.2946826404667497</v>
+        <v>4.74514144016669</v>
       </c>
       <c r="E89" s="36">
-        <v>1.2664984621137401</v>
+        <v>1.4699407619265601</v>
       </c>
       <c r="F89" s="36">
-        <v>3.7885411822666999</v>
+        <v>3.82440625173603</v>
       </c>
       <c r="G89" s="36">
-        <v>3.1894205529631998</v>
+        <v>3.15764473672581</v>
       </c>
       <c r="H89" s="36">
-        <v>3.6643810766628002</v>
+        <v>3.5791448819036602</v>
       </c>
       <c r="I89" s="36">
-        <v>4.92619108243216</v>
+        <v>4.9452766198950302</v>
       </c>
       <c r="J89" s="36">
-        <v>5.36425756296451</v>
+        <v>5.5756869420459898</v>
       </c>
       <c r="K89" s="36">
-        <v>2.4096323773053898</v>
+        <v>2.5283657701251201</v>
       </c>
       <c r="L89" s="36">
-        <v>3.8568796159833898</v>
+        <v>3.9617831746384602</v>
       </c>
       <c r="M89" s="36">
-        <v>6.4716592484659898</v>
+        <v>6.5589734273703204</v>
       </c>
       <c r="N89" s="36">
-        <v>3.7721996623349598</v>
+        <v>3.7563910081334799</v>
       </c>
       <c r="O89" s="36">
-        <v>5.2328649029937502</v>
+        <v>5.23717351294881</v>
       </c>
       <c r="P89" s="36">
-        <v>7.4128886275008403</v>
+        <v>7.5217913250311499</v>
       </c>
       <c r="Q89" s="36">
-        <v>8.6911682685875302</v>
+        <v>8.6685594986423897</v>
       </c>
       <c r="R89" s="36">
-        <v>7.6219471391431002</v>
+        <v>7.6896169006692299</v>
       </c>
       <c r="S89" s="36">
-        <v>8.8963066023826602</v>
+        <v>8.9294865001402304</v>
       </c>
       <c r="T89" s="36">
-        <v>9.6228244648490708</v>
+        <v>9.6563903429220304</v>
       </c>
       <c r="U89" s="36">
-        <v>6.5435828175104103</v>
+        <v>6.4812100672828903</v>
       </c>
       <c r="V89" s="36">
-        <v>2.5819119655116101</v>
+        <v>2.6868949200979202</v>
       </c>
       <c r="W89" s="36">
-        <v>8.2176025583209906</v>
+        <v>8.3868362017093308</v>
       </c>
       <c r="X89" s="36">
-        <v>7.2413636845044396</v>
+        <v>7.28436830340803</v>
       </c>
       <c r="Y89" s="36">
-        <v>5.7764348610861598</v>
+        <v>5.8253584963442302</v>
       </c>
       <c r="Z89" s="36">
-        <v>5.53135647502776</v>
+        <v>5.5955152679717601</v>
       </c>
       <c r="AA89" s="36">
-        <v>4.6815907929357596</v>
+        <v>4.6931416548253502</v>
       </c>
       <c r="AB89" s="36">
-        <v>4.1469347282858502</v>
+        <v>4.1648707845403603</v>
       </c>
       <c r="AC89" s="36">
-        <v>4.1276852230871199</v>
+        <v>4.1488093825075198</v>
       </c>
       <c r="AD89" s="36">
-        <v>5.0480363385010802</v>
+        <v>5.0134711074482796</v>
       </c>
       <c r="AE89" s="36">
-        <v>4.7940775802565998</v>
+        <v>4.79775835956164</v>
       </c>
       <c r="AF89" s="36">
-        <v>3.9346962011542801</v>
+        <v>3.9649615420793101</v>
       </c>
       <c r="AG89" s="36">
-        <v>-0.78745768402229999</v>
+        <v>-0.65842783143250005</v>
       </c>
       <c r="AH89" s="36">
-        <v>7.6245635184190297</v>
+        <v>7.6266181972198401</v>
       </c>
       <c r="AI89" s="36">
-        <v>3.0778423871563998</v>
+        <v>3.0340622859026398</v>
       </c>
       <c r="AJ89" s="36">
-        <v>3.8108938514496402</v>
+        <v>3.8262076528015498</v>
       </c>
       <c r="AK89" s="36">
-        <v>3.6546321538147599</v>
+        <v>3.6535227078800698</v>
       </c>
       <c r="AL89" s="36">
-        <v>3.36787494794899</v>
+        <v>3.3606349286002999</v>
       </c>
       <c r="AM89" s="36">
-        <v>3.3219132441229302</v>
+        <v>3.3145482203901402</v>
       </c>
       <c r="AN89" s="36">
-        <v>3.0831139345699299</v>
+        <v>3.0733475554198999</v>
       </c>
       <c r="AO89" s="36">
-        <v>2.9833399801595699</v>
+        <v>2.9722387026532902</v>
       </c>
       <c r="AP89" s="37">
-        <v>3.2819071759238501</v>
+        <v>3.2745830581366202</v>
       </c>
     </row>
     <row r="90" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -12629,124 +12629,124 @@
         <v>147</v>
       </c>
       <c r="C90" s="39">
-        <v>3.2536465910432502</v>
+        <v>3.1695302623726702</v>
       </c>
       <c r="D90" s="39">
-        <v>1.67306871272266</v>
+        <v>1.5550465690798401</v>
       </c>
       <c r="E90" s="39">
-        <v>2.4838029625779399</v>
+        <v>2.4031730934368398</v>
       </c>
       <c r="F90" s="39">
-        <v>1.2999324282326401</v>
+        <v>1.3048408216482399</v>
       </c>
       <c r="G90" s="39">
-        <v>3.2593294610164598</v>
+        <v>3.2641076903457802</v>
       </c>
       <c r="H90" s="39">
-        <v>2.88133562536358</v>
+        <v>2.9140331515301199</v>
       </c>
       <c r="I90" s="39">
-        <v>3.0230796509082301</v>
+        <v>3.03378209404557</v>
       </c>
       <c r="J90" s="39">
-        <v>3.5486665979507399</v>
+        <v>3.4821653904666299</v>
       </c>
       <c r="K90" s="39">
-        <v>2.8685192417492398</v>
+        <v>2.8212161177549002</v>
       </c>
       <c r="L90" s="39">
-        <v>3.3144721106417601</v>
+        <v>3.2865503098147899</v>
       </c>
       <c r="M90" s="39">
-        <v>4.21182170691013</v>
+        <v>4.20247942502293</v>
       </c>
       <c r="N90" s="39">
-        <v>1.5103521021159301</v>
+        <v>1.53276617283353</v>
       </c>
       <c r="O90" s="39">
-        <v>1.4991048402904901</v>
+        <v>1.5280159146289001</v>
       </c>
       <c r="P90" s="39">
-        <v>2.4402976348120702</v>
+        <v>2.4409902702728301</v>
       </c>
       <c r="Q90" s="39">
-        <v>3.50160913185311</v>
+        <v>3.5543786687555401</v>
       </c>
       <c r="R90" s="39">
-        <v>2.9591683884063702</v>
+        <v>2.9756948827665499</v>
       </c>
       <c r="S90" s="39">
-        <v>3.23726181886689</v>
+        <v>3.2791159833293402</v>
       </c>
       <c r="T90" s="39">
-        <v>2.7907071747729901</v>
+        <v>2.8357635835569002</v>
       </c>
       <c r="U90" s="39">
-        <v>0.74719717846622002</v>
+        <v>0.83286759546545996</v>
       </c>
       <c r="V90" s="39">
-        <v>-3.1744422745002998</v>
+        <v>-3.1892950756257998</v>
       </c>
       <c r="W90" s="39">
-        <v>3.0859803217619</v>
+        <v>3.0340035028637602</v>
       </c>
       <c r="X90" s="39">
-        <v>2.2368312556999399</v>
+        <v>2.2675706478058899</v>
       </c>
       <c r="Y90" s="39">
-        <v>1.4878733270671201</v>
+        <v>1.5034134434717601</v>
       </c>
       <c r="Z90" s="39">
-        <v>1.49748344200531</v>
+        <v>1.4963156571421801</v>
       </c>
       <c r="AA90" s="39">
-        <v>2.11469769117859</v>
+        <v>2.13575028732286</v>
       </c>
       <c r="AB90" s="39">
-        <v>2.52712342883909</v>
+        <v>2.5383053297704401</v>
       </c>
       <c r="AC90" s="39">
-        <v>1.88261823334238</v>
+        <v>1.8972171488740499</v>
       </c>
       <c r="AD90" s="39">
-        <v>2.3676601024081498</v>
+        <v>2.4285784280220701</v>
       </c>
       <c r="AE90" s="39">
-        <v>2.3763190645710699</v>
+        <v>2.4140904700743899</v>
       </c>
       <c r="AF90" s="39">
-        <v>1.75989223413337</v>
+        <v>1.7829172306454799</v>
       </c>
       <c r="AG90" s="39">
-        <v>-4.3283190017189002</v>
+        <v>-4.3480763244166001</v>
       </c>
       <c r="AH90" s="39">
-        <v>5.3889823405144703</v>
+        <v>5.4146326362499799</v>
       </c>
       <c r="AI90" s="39">
-        <v>3.0514669799312499</v>
+        <v>3.0844536650847099</v>
       </c>
       <c r="AJ90" s="39">
-        <v>1.2284368955689</v>
+        <v>1.2490283999478</v>
       </c>
       <c r="AK90" s="39">
-        <v>1.4459000977682701</v>
+        <v>1.4747717084495999</v>
       </c>
       <c r="AL90" s="39">
-        <v>1.9360003398507599</v>
+        <v>1.96011574247278</v>
       </c>
       <c r="AM90" s="39">
-        <v>1.9631231251365799</v>
+        <v>1.9867715094258001</v>
       </c>
       <c r="AN90" s="39">
-        <v>1.8967360979887999</v>
+        <v>1.9203755349377001</v>
       </c>
       <c r="AO90" s="39">
-        <v>1.87412554004647</v>
+        <v>1.8981491798058501</v>
       </c>
       <c r="AP90" s="40">
-        <v>1.8229973362766001</v>
+        <v>1.8478607952403101</v>
       </c>
     </row>
     <row r="91" spans="1:42" x14ac:dyDescent="0.35">
@@ -12811,7 +12811,7 @@
         <v>7.7539896938279096</v>
       </c>
       <c r="U91" s="42">
-        <v>6.9547769323742203</v>
+        <v>6.9547769323742097</v>
       </c>
       <c r="V91" s="42">
         <v>2.9639789991418102</v>
@@ -12823,7 +12823,7 @@
         <v>4.4226133437352102</v>
       </c>
       <c r="Y91" s="42">
-        <v>2.61558101287814</v>
+        <v>2.6155810128781498</v>
       </c>
       <c r="Z91" s="42">
         <v>5.64969997066156</v>
@@ -12832,7 +12832,7 @@
         <v>6.0212496986077104</v>
       </c>
       <c r="AB91" s="42">
-        <v>4.7573684638885396</v>
+        <v>4.7573684638885503</v>
       </c>
       <c r="AC91" s="42">
         <v>3.5076510559718201</v>
@@ -13141,124 +13141,124 @@
         <v>151</v>
       </c>
       <c r="C94" s="36">
-        <v>3.9892228421730098</v>
+        <v>4.0330963763297403</v>
       </c>
       <c r="D94" s="36">
-        <v>3.5894412903001802</v>
+        <v>3.7055076209774498</v>
       </c>
       <c r="E94" s="36">
-        <v>6.4220231293987098</v>
+        <v>6.3590216778735504</v>
       </c>
       <c r="F94" s="36">
-        <v>7.3325206999552899</v>
+        <v>7.3080186615747698</v>
       </c>
       <c r="G94" s="36">
-        <v>6.17502705067559</v>
+        <v>6.4356304995485498</v>
       </c>
       <c r="H94" s="36">
-        <v>5.5925553492756901</v>
+        <v>5.9034749405008498</v>
       </c>
       <c r="I94" s="36">
-        <v>6.0749137091366601</v>
+        <v>6.3072586721867596</v>
       </c>
       <c r="J94" s="36">
-        <v>6.1787739633888599</v>
+        <v>6.4820642921629803</v>
       </c>
       <c r="K94" s="36">
-        <v>1.3691536113396401</v>
+        <v>1.08306886295976</v>
       </c>
       <c r="L94" s="36">
-        <v>5.24819495380319</v>
+        <v>5.18819572689699</v>
       </c>
       <c r="M94" s="36">
-        <v>6.2814064498481903</v>
+        <v>6.2198285292623599</v>
       </c>
       <c r="N94" s="36">
-        <v>0.55192234421359998</v>
+        <v>0.38701816475063999</v>
       </c>
       <c r="O94" s="36">
-        <v>3.5853101009947799</v>
+        <v>3.6054030150452601</v>
       </c>
       <c r="P94" s="36">
-        <v>4.31005689724517</v>
+        <v>4.1377432202829798</v>
       </c>
       <c r="Q94" s="36">
-        <v>6.6760117255351403</v>
+        <v>6.6494393515888897</v>
       </c>
       <c r="R94" s="36">
-        <v>6.4656571993381</v>
+        <v>6.4391268724815101</v>
       </c>
       <c r="S94" s="36">
-        <v>8.1371546309491798</v>
+        <v>8.2809489500413793</v>
       </c>
       <c r="T94" s="36">
-        <v>7.4433032707953597</v>
+        <v>7.3693895906384004</v>
       </c>
       <c r="U94" s="36">
-        <v>2.4391915562461901</v>
+        <v>2.0952763257729798</v>
       </c>
       <c r="V94" s="36">
-        <v>0.31394703561471998</v>
+        <v>0.10753087298475</v>
       </c>
       <c r="W94" s="36">
-        <v>9.7843026199104699</v>
+        <v>10.2636641788063</v>
       </c>
       <c r="X94" s="36">
-        <v>4.5015630806865099</v>
+        <v>4.7174552222121502</v>
       </c>
       <c r="Y94" s="36">
-        <v>3.68457959588563</v>
+        <v>3.6806668116357599</v>
       </c>
       <c r="Z94" s="36">
-        <v>4.4228770246337703</v>
+        <v>4.3345519580617404</v>
       </c>
       <c r="AA94" s="36">
-        <v>4.4655768507034601</v>
+        <v>4.4754037362772099</v>
       </c>
       <c r="AB94" s="36">
-        <v>3.3682089893382399</v>
+        <v>3.43455635001615</v>
       </c>
       <c r="AC94" s="36">
-        <v>3.5288032769797399</v>
+        <v>3.5266664718167902</v>
       </c>
       <c r="AD94" s="36">
-        <v>3.8472904578251099</v>
+        <v>3.8130416198789101</v>
       </c>
       <c r="AE94" s="36">
-        <v>3.6922194279673</v>
+        <v>3.8121781743689098</v>
       </c>
       <c r="AF94" s="36">
-        <v>2.1284451638767599</v>
+        <v>2.1255219044057601</v>
       </c>
       <c r="AG94" s="36">
-        <v>-4.8854856567037004</v>
+        <v>-4.9038347247490996</v>
       </c>
       <c r="AH94" s="36">
-        <v>8.2832601386794593</v>
+        <v>8.6885433464359707</v>
       </c>
       <c r="AI94" s="36">
-        <v>5.5850356566144397</v>
+        <v>5.6846660690341597</v>
       </c>
       <c r="AJ94" s="36">
-        <v>3.6390403359555301</v>
+        <v>3.68445260145422</v>
       </c>
       <c r="AK94" s="36">
-        <v>4.9522726718533603</v>
+        <v>5.03614252684745</v>
       </c>
       <c r="AL94" s="36">
-        <v>3.1213024678011698</v>
+        <v>3.1182945092116801</v>
       </c>
       <c r="AM94" s="36">
-        <v>5.1052773255220503</v>
+        <v>5.2753618813634704</v>
       </c>
       <c r="AN94" s="36">
-        <v>3.0392002862726102</v>
+        <v>3.06140449418477</v>
       </c>
       <c r="AO94" s="36">
-        <v>3.0449167230353802</v>
+        <v>3.0665094820559999</v>
       </c>
       <c r="AP94" s="37">
-        <v>3.8481495427601802</v>
+        <v>3.9065608640471901</v>
       </c>
     </row>
     <row r="95" spans="1:42" x14ac:dyDescent="0.35">
@@ -13272,7 +13272,7 @@
         <v>3.72224862858056</v>
       </c>
       <c r="D95" s="36">
-        <v>1.77400297686958</v>
+        <v>1.77400297686959</v>
       </c>
       <c r="E95" s="36">
         <v>-0.3144063257593</v>
@@ -13350,7 +13350,7 @@
         <v>4.1747884226562597</v>
       </c>
       <c r="AD95" s="36">
-        <v>6.2754642790222999</v>
+        <v>6.2754642790223096</v>
       </c>
       <c r="AE95" s="36">
         <v>5.8212994058827201</v>
@@ -13525,124 +13525,124 @@
         <v>154</v>
       </c>
       <c r="C97" s="42">
-        <v>1.5021380364600601</v>
+        <v>1.61127266935296</v>
       </c>
       <c r="D97" s="42">
-        <v>3.7099934998006998</v>
+        <v>3.7153586531451199</v>
       </c>
       <c r="E97" s="42">
-        <v>0.11238651206278</v>
+        <v>0.14288097436427</v>
       </c>
       <c r="F97" s="42">
-        <v>0.47210511095676</v>
+        <v>0.53264748945953999</v>
       </c>
       <c r="G97" s="42">
-        <v>1.75825298715881</v>
+        <v>1.76122401880097</v>
       </c>
       <c r="H97" s="42">
-        <v>1.5969082536011201</v>
+        <v>1.6498267174388099</v>
       </c>
       <c r="I97" s="42">
-        <v>4.6899873201470701</v>
+        <v>4.68564495284802</v>
       </c>
       <c r="J97" s="42">
-        <v>2.90823092073463</v>
+        <v>2.9428091343201799</v>
       </c>
       <c r="K97" s="42">
-        <v>3.08276694018494</v>
+        <v>3.09361389768122</v>
       </c>
       <c r="L97" s="42">
-        <v>2.1113870021671501</v>
+        <v>2.13883874976433</v>
       </c>
       <c r="M97" s="42">
-        <v>4.3078968432197096</v>
+        <v>4.3272025883502501</v>
       </c>
       <c r="N97" s="42">
-        <v>5.9207237854322301</v>
+        <v>5.9134432442768601</v>
       </c>
       <c r="O97" s="42">
-        <v>6.4879206179359503</v>
+        <v>6.4653400900910301</v>
       </c>
       <c r="P97" s="42">
-        <v>6.9814890636254301</v>
+        <v>6.9394634215555699</v>
       </c>
       <c r="Q97" s="42">
-        <v>7.7364378450562796</v>
+        <v>7.6982662426656097</v>
       </c>
       <c r="R97" s="42">
-        <v>7.3507900118317098</v>
+        <v>7.2890172722308701</v>
       </c>
       <c r="S97" s="42">
-        <v>5.8377856050579</v>
+        <v>5.8173791456892197</v>
       </c>
       <c r="T97" s="42">
-        <v>7.0010071648656202</v>
+        <v>6.99016611914195</v>
       </c>
       <c r="U97" s="42">
-        <v>5.68641401289445</v>
+        <v>5.6780221558650004</v>
       </c>
       <c r="V97" s="42">
-        <v>4.1515949165780102</v>
+        <v>4.1324247802086003</v>
       </c>
       <c r="W97" s="42">
-        <v>7.7266165017725301</v>
+        <v>7.6708444025506601</v>
       </c>
       <c r="X97" s="42">
-        <v>1.9818632320471601</v>
+        <v>1.99197000604901</v>
       </c>
       <c r="Y97" s="42">
-        <v>10.0683227068437</v>
+        <v>10.014882929099</v>
       </c>
       <c r="Z97" s="42">
-        <v>3.9612475071620499</v>
+        <v>3.9954175241294201</v>
       </c>
       <c r="AA97" s="42">
-        <v>4.6518510862725302</v>
+        <v>4.6700803235097004</v>
       </c>
       <c r="AB97" s="42">
-        <v>3.6700759819275102</v>
+        <v>3.64951671094751</v>
       </c>
       <c r="AC97" s="42">
-        <v>1.4738733950719201</v>
+        <v>1.4946206272118101</v>
       </c>
       <c r="AD97" s="42">
-        <v>4.4528327890558703</v>
+        <v>4.46645215916217</v>
       </c>
       <c r="AE97" s="42">
-        <v>3.3011269373345602</v>
+        <v>3.3403483781135299</v>
       </c>
       <c r="AF97" s="42">
-        <v>2.7341498688254</v>
+        <v>2.7838603331550602</v>
       </c>
       <c r="AG97" s="42">
-        <v>-1.5424780266333</v>
+        <v>-1.4737730367566</v>
       </c>
       <c r="AH97" s="42">
-        <v>5.2506340834632201</v>
+        <v>5.2753939050630896</v>
       </c>
       <c r="AI97" s="42">
-        <v>3.32319064858997</v>
+        <v>3.35921216316344</v>
       </c>
       <c r="AJ97" s="42">
-        <v>4.7385961830297196</v>
+        <v>4.7555235106023996</v>
       </c>
       <c r="AK97" s="42">
-        <v>4.6847435950012501</v>
+        <v>4.7018287575100697</v>
       </c>
       <c r="AL97" s="42">
-        <v>4.7190287810794498</v>
+        <v>4.7380272320391397</v>
       </c>
       <c r="AM97" s="42">
-        <v>4.6552231005756299</v>
+        <v>4.6742113729020298</v>
       </c>
       <c r="AN97" s="42">
-        <v>4.8362728411610503</v>
+        <v>4.8521950897646304</v>
       </c>
       <c r="AO97" s="42">
-        <v>4.8321924311218201</v>
+        <v>4.8479977153578098</v>
       </c>
       <c r="AP97" s="43">
-        <v>4.7454651370805196</v>
+        <v>4.7628258536614796</v>
       </c>
     </row>
     <row r="98" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -13662,115 +13662,115 @@
         <v>5.3493255774792603</v>
       </c>
       <c r="F98" s="39">
-        <v>0.90703043777612002</v>
+        <v>0.78116685733421998</v>
       </c>
       <c r="G98" s="39">
-        <v>0.77008402783296004</v>
+        <v>0.59840960059796</v>
       </c>
       <c r="H98" s="39">
-        <v>3.84147897563484</v>
+        <v>3.7475947771359701</v>
       </c>
       <c r="I98" s="39">
-        <v>4.7783217096029604</v>
+        <v>4.6912765574593998</v>
       </c>
       <c r="J98" s="39">
-        <v>2.7487603593305998</v>
+        <v>2.6566839741697699</v>
       </c>
       <c r="K98" s="39">
-        <v>2.8252624983507602</v>
+        <v>2.8516219189211598</v>
       </c>
       <c r="L98" s="39">
-        <v>2.9377154527866298</v>
+        <v>3.03584244363523</v>
       </c>
       <c r="M98" s="39">
-        <v>4.4827195010327898</v>
+        <v>4.5985324767150004</v>
       </c>
       <c r="N98" s="39">
-        <v>2.7205292136782999</v>
+        <v>2.8987906946344602</v>
       </c>
       <c r="O98" s="39">
-        <v>3.4436139376098298</v>
+        <v>3.5709020145686301</v>
       </c>
       <c r="P98" s="39">
-        <v>9.9276729858953008</v>
+        <v>10.0049521309742</v>
       </c>
       <c r="Q98" s="39">
-        <v>11.4594064454307</v>
+        <v>11.4934993338716</v>
       </c>
       <c r="R98" s="39">
-        <v>6.0306508936640997</v>
+        <v>6.1197066714829997</v>
       </c>
       <c r="S98" s="39">
-        <v>6.2704919070402898</v>
+        <v>6.3295923498229296</v>
       </c>
       <c r="T98" s="39">
-        <v>7.0151647128241201</v>
+        <v>7.0729821572457201</v>
       </c>
       <c r="U98" s="39">
-        <v>3.8560006012310399</v>
+        <v>4.0274273282827098</v>
       </c>
       <c r="V98" s="39">
-        <v>1.6245262263812501</v>
+        <v>1.7012523972807601</v>
       </c>
       <c r="W98" s="39">
-        <v>4.2501188846292699</v>
+        <v>4.4668832753018002</v>
       </c>
       <c r="X98" s="39">
-        <v>3.9597829575012899</v>
+        <v>4.1395632850012598</v>
       </c>
       <c r="Y98" s="39">
-        <v>3.5642856210168099</v>
+        <v>3.6167268474882799</v>
       </c>
       <c r="Z98" s="39">
-        <v>3.0433327920155602</v>
+        <v>2.9776452541415499</v>
       </c>
       <c r="AA98" s="39">
-        <v>3.4999364700006899</v>
+        <v>3.5074295378687799</v>
       </c>
       <c r="AB98" s="39">
-        <v>1.4461987689868401</v>
+        <v>1.4789041981339199</v>
       </c>
       <c r="AC98" s="39">
-        <v>4.7274710049709103</v>
+        <v>4.6150963522357298</v>
       </c>
       <c r="AD98" s="39">
-        <v>2.0797998904084798</v>
+        <v>2.12978303905426</v>
       </c>
       <c r="AE98" s="39">
-        <v>2.1816392688942501</v>
+        <v>2.1528219502387</v>
       </c>
       <c r="AF98" s="39">
-        <v>1.5948320441688399</v>
+        <v>1.4973388649627499</v>
       </c>
       <c r="AG98" s="39">
-        <v>-1.0155618508605999</v>
+        <v>-1.0621203489177999</v>
       </c>
       <c r="AH98" s="39">
-        <v>4.64333534714069</v>
+        <v>4.6404980889524303</v>
       </c>
       <c r="AI98" s="39">
-        <v>5.1412928683702299</v>
+        <v>5.0749431628383697</v>
       </c>
       <c r="AJ98" s="39">
-        <v>2.8487765020187399</v>
+        <v>2.8383973173863102</v>
       </c>
       <c r="AK98" s="39">
-        <v>3.8323514921239199</v>
+        <v>3.7996406222200099</v>
       </c>
       <c r="AL98" s="39">
-        <v>4.2174301922433699</v>
+        <v>4.1865318009088801</v>
       </c>
       <c r="AM98" s="39">
-        <v>4.3935921768621604</v>
+        <v>4.3533786016578997</v>
       </c>
       <c r="AN98" s="39">
-        <v>4.4945925700277103</v>
+        <v>4.4532231242733502</v>
       </c>
       <c r="AO98" s="39">
-        <v>4.4479693213498503</v>
+        <v>4.4076608393345698</v>
       </c>
       <c r="AP98" s="40">
-        <v>4.27690723358028</v>
+        <v>4.23981488376306</v>
       </c>
     </row>
     <row r="99" spans="1:42" x14ac:dyDescent="0.35">
@@ -14484,11 +14484,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{FB20F7AB-35FD-4F5F-8C85-A6D6491B920F}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{8224AFE7-CD2C-416F-9486-0EAC189629C2}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{C53BFD13-1DBC-41FE-B02F-294D36344A65}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{C8B8E84A-56C2-40DA-B976-19D25CB1E17F}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{D5622167-0CCE-4415-9B88-553B40E37E7E}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{0A5A2A6D-0BE0-4C1A-82E3-E3235A45714C}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{EAFDCFC3-5B3D-404E-943B-2E3C2B3FA52F}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{7D8E0F3C-A10D-4EF9-BCF3-6C03C6E5ABDF}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{18123B0E-2D50-455C-88CD-D2E94413D69B}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{0D6E512C-657C-4BDF-899E-94DED29AF408}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="35" fitToHeight="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab02.xlsx
+++ b/AfDD_2023_Annex_Table_Tab02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43C97551-C727-4C16-82D4-93C4DF9EF350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C8701D7-2B90-488A-81F6-EA065D51DC4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E32AB64B-7484-4DD4-A199-3503EA051512}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7C479650-08A2-43A8-9097-880D1B6E8020}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab02" sheetId="1" r:id="rId1"/>
@@ -1295,7 +1295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC0A710-49F0-4EC6-BA8E-5303915AEFC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7361E326-DA07-4FD8-8DF2-A54E27175CB2}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -14484,11 +14484,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{0A5A2A6D-0BE0-4C1A-82E3-E3235A45714C}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{EAFDCFC3-5B3D-404E-943B-2E3C2B3FA52F}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{7D8E0F3C-A10D-4EF9-BCF3-6C03C6E5ABDF}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{18123B0E-2D50-455C-88CD-D2E94413D69B}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{0D6E512C-657C-4BDF-899E-94DED29AF408}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{B517FDDE-A287-40F0-9100-CC94C5D05891}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{17FDC442-CDC8-43AC-98AE-5B52BFF4750D}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{4071D221-AC59-4757-BAEC-A3B7627413BC}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{32A91D91-8A2A-43B9-A1FD-C0B5CE0C2DFC}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{7D63B6D9-C0C9-4C60-943C-A9A53EA7E3CD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="35" fitToHeight="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab02.xlsx
+++ b/AfDD_2023_Annex_Table_Tab02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C8701D7-2B90-488A-81F6-EA065D51DC4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A65A59BF-E993-4FE1-B643-8500A9092D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7C479650-08A2-43A8-9097-880D1B6E8020}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{6C8CA3E0-7F62-49FD-B5E1-32FB82B3CD64}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab02" sheetId="1" r:id="rId1"/>
@@ -516,7 +516,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Pa&gt;ses Africanos de L&gt;ngua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Com&gt;n del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Figures up to 2022 are estimates. For 2023 onwards, they are projections.</t>
@@ -1295,7 +1295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7361E326-DA07-4FD8-8DF2-A54E27175CB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E8D010-0D0A-4146-9799-1A919799FFD8}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -9685,7 +9685,7 @@
         <v>124</v>
       </c>
       <c r="C67" s="42">
-        <v>2.5628862630534699</v>
+        <v>2.5628862630534601</v>
       </c>
       <c r="D67" s="42">
         <v>4.7231902737319302</v>
@@ -9742,7 +9742,7 @@
         <v>5.32487598683411</v>
       </c>
       <c r="V67" s="42">
-        <v>3.06552612073583</v>
+        <v>3.0655261207358402</v>
       </c>
       <c r="W67" s="42">
         <v>5.77705254653422</v>
@@ -9784,7 +9784,7 @@
         <v>4.6328727241583296</v>
       </c>
       <c r="AJ67" s="42">
-        <v>4.6837926910574597</v>
+        <v>4.6837926910574499</v>
       </c>
       <c r="AK67" s="42">
         <v>5.1229470129468702</v>
@@ -9852,7 +9852,7 @@
         <v>5.3296044139272603</v>
       </c>
       <c r="P68" s="36">
-        <v>6.4957053632020898</v>
+        <v>6.4957053632020996</v>
       </c>
       <c r="Q68" s="36">
         <v>6.1709987363541003</v>
@@ -9912,7 +9912,7 @@
         <v>3.80421805367792</v>
       </c>
       <c r="AJ68" s="36">
-        <v>3.9924538457673702</v>
+        <v>3.9924538457673799</v>
       </c>
       <c r="AK68" s="36">
         <v>4.4228536200964701</v>
@@ -9983,7 +9983,7 @@
         <v>5.0352472918301796</v>
       </c>
       <c r="Q69" s="36">
-        <v>6.1801702749040297</v>
+        <v>6.1801702749040199</v>
       </c>
       <c r="R69" s="36">
         <v>7.6279549661253903</v>
@@ -10105,7 +10105,7 @@
         <v>6.0579099307207196</v>
       </c>
       <c r="O70" s="36">
-        <v>8.31073419334707</v>
+        <v>8.3107341933470806</v>
       </c>
       <c r="P70" s="36">
         <v>4.79348977995721</v>
@@ -10177,7 +10177,7 @@
         <v>4.4305662515032296</v>
       </c>
       <c r="AM70" s="36">
-        <v>4.7641037426705202</v>
+        <v>4.7641037426705299</v>
       </c>
       <c r="AN70" s="36">
         <v>4.7697118479367804</v>
@@ -10352,7 +10352,7 @@
         <v>4.3872496869490698</v>
       </c>
       <c r="L72" s="36">
-        <v>4.36151334030298</v>
+        <v>4.3615133403029898</v>
       </c>
       <c r="M72" s="36">
         <v>5.3910652558978702</v>
@@ -10379,7 +10379,7 @@
         <v>7.3321874882977003</v>
       </c>
       <c r="U72" s="36">
-        <v>5.1479046481469597</v>
+        <v>5.1479046481469704</v>
       </c>
       <c r="V72" s="36">
         <v>3.0555918862808902</v>
@@ -10552,7 +10552,7 @@
         <v>3.16150215081564</v>
       </c>
       <c r="AJ73" s="36">
-        <v>2.2954423760789102</v>
+        <v>2.29544237607892</v>
       </c>
       <c r="AK73" s="36">
         <v>3.4251642216000699</v>
@@ -13525,124 +13525,124 @@
         <v>154</v>
       </c>
       <c r="C97" s="42">
-        <v>1.61127266935296</v>
+        <v>2.4110916607942401</v>
       </c>
       <c r="D97" s="42">
-        <v>3.7153586531451199</v>
+        <v>4.0492229204279804</v>
       </c>
       <c r="E97" s="42">
-        <v>0.14288097436427</v>
+        <v>0.11617974231199001</v>
       </c>
       <c r="F97" s="42">
-        <v>0.53264748945953999</v>
+        <v>0.91884069570705995</v>
       </c>
       <c r="G97" s="42">
-        <v>1.76122401880097</v>
+        <v>1.82723858306303</v>
       </c>
       <c r="H97" s="42">
-        <v>1.6498267174388099</v>
+        <v>0.95668196446331</v>
       </c>
       <c r="I97" s="42">
-        <v>4.68564495284802</v>
+        <v>4.9134286107402803</v>
       </c>
       <c r="J97" s="42">
-        <v>2.9428091343201799</v>
+        <v>2.65142820981547</v>
       </c>
       <c r="K97" s="42">
-        <v>3.09361389768122</v>
+        <v>2.5872635323362001</v>
       </c>
       <c r="L97" s="42">
-        <v>2.13883874976433</v>
+        <v>2.12746902067525</v>
       </c>
       <c r="M97" s="42">
-        <v>4.3272025883502501</v>
+        <v>3.44401483617705</v>
       </c>
       <c r="N97" s="42">
-        <v>5.9134432442768601</v>
+        <v>5.0723449490637904</v>
       </c>
       <c r="O97" s="42">
-        <v>6.4653400900910301</v>
+        <v>6.5303665369706101</v>
       </c>
       <c r="P97" s="42">
-        <v>6.9394634215555699</v>
+        <v>6.9952529233921501</v>
       </c>
       <c r="Q97" s="42">
-        <v>7.6982662426656097</v>
+        <v>7.4281663813684</v>
       </c>
       <c r="R97" s="42">
-        <v>7.2890172722308701</v>
+        <v>7.3859195267578599</v>
       </c>
       <c r="S97" s="42">
-        <v>5.8173791456892197</v>
+        <v>5.8020410860950999</v>
       </c>
       <c r="T97" s="42">
-        <v>6.99016611914195</v>
+        <v>7.1609567660121503</v>
       </c>
       <c r="U97" s="42">
-        <v>5.6780221558650004</v>
+        <v>5.6612131878272196</v>
       </c>
       <c r="V97" s="42">
-        <v>4.1324247802086003</v>
+        <v>4.8177129894068598</v>
       </c>
       <c r="W97" s="42">
-        <v>7.6708444025506601</v>
+        <v>8.2001394070253095</v>
       </c>
       <c r="X97" s="42">
-        <v>1.99197000604901</v>
+        <v>2.1832314580794598</v>
       </c>
       <c r="Y97" s="42">
-        <v>10.014882929099</v>
+        <v>12.406156864222</v>
       </c>
       <c r="Z97" s="42">
-        <v>3.9954175241294201</v>
+        <v>4.0575421739085504</v>
       </c>
       <c r="AA97" s="42">
-        <v>4.6700803235097004</v>
+        <v>4.5851264630995301</v>
       </c>
       <c r="AB97" s="42">
-        <v>3.64951671094751</v>
+        <v>3.81281188181786</v>
       </c>
       <c r="AC97" s="42">
-        <v>1.4946206272118101</v>
+        <v>1.5409000938411399</v>
       </c>
       <c r="AD97" s="42">
-        <v>4.46645215916217</v>
+        <v>5.0818885118292103</v>
       </c>
       <c r="AE97" s="42">
-        <v>3.3403483781135299</v>
+        <v>3.8292843226646598</v>
       </c>
       <c r="AF97" s="42">
-        <v>2.7838603331550602</v>
+        <v>3.1516989304810101</v>
       </c>
       <c r="AG97" s="42">
-        <v>-1.4737730367566</v>
+        <v>-1.3959373897413001</v>
       </c>
       <c r="AH97" s="42">
-        <v>5.2753939050630896</v>
+        <v>5.7085074124332902</v>
       </c>
       <c r="AI97" s="42">
-        <v>3.35921216316344</v>
+        <v>3.6103000928228699</v>
       </c>
       <c r="AJ97" s="42">
-        <v>4.7555235106023996</v>
+        <v>4.9752604085909899</v>
       </c>
       <c r="AK97" s="42">
-        <v>4.7018287575100697</v>
+        <v>4.8403467960898903</v>
       </c>
       <c r="AL97" s="42">
-        <v>4.7380272320391397</v>
+        <v>4.8493844565952902</v>
       </c>
       <c r="AM97" s="42">
-        <v>4.6742113729020298</v>
+        <v>4.7198496341695604</v>
       </c>
       <c r="AN97" s="42">
-        <v>4.8521950897646304</v>
+        <v>4.9222552284608998</v>
       </c>
       <c r="AO97" s="42">
-        <v>4.8479977153578098</v>
+        <v>4.9198942048660204</v>
       </c>
       <c r="AP97" s="43">
-        <v>4.7628258536614796</v>
+        <v>4.8503201721378497</v>
       </c>
     </row>
     <row r="98" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -13653,124 +13653,124 @@
         <v>155</v>
       </c>
       <c r="C98" s="39">
-        <v>8.6619694352368501</v>
+        <v>8.7325268008393504</v>
       </c>
       <c r="D98" s="39">
-        <v>8.8762043677275297</v>
+        <v>8.9713894320230292</v>
       </c>
       <c r="E98" s="39">
-        <v>5.3493255774792603</v>
+        <v>5.0616700252218001</v>
       </c>
       <c r="F98" s="39">
-        <v>0.78116685733421998</v>
+        <v>0.49235847999964</v>
       </c>
       <c r="G98" s="39">
-        <v>0.59840960059796</v>
+        <v>0.34702596254647999</v>
       </c>
       <c r="H98" s="39">
-        <v>3.7475947771359701</v>
+        <v>3.5543719162138898</v>
       </c>
       <c r="I98" s="39">
-        <v>4.6912765574593998</v>
+        <v>4.77453759504077</v>
       </c>
       <c r="J98" s="39">
-        <v>2.6566839741697699</v>
+        <v>2.7442617465422501</v>
       </c>
       <c r="K98" s="39">
-        <v>2.8516219189211598</v>
+        <v>2.6520660614302698</v>
       </c>
       <c r="L98" s="39">
-        <v>3.03584244363523</v>
+        <v>1.9740126207022199</v>
       </c>
       <c r="M98" s="39">
-        <v>4.5985324767150004</v>
+        <v>5.1671679066532796</v>
       </c>
       <c r="N98" s="39">
-        <v>2.8987906946344602</v>
+        <v>3.3384710749257001</v>
       </c>
       <c r="O98" s="39">
-        <v>3.5709020145686301</v>
+        <v>3.9865498044879502</v>
       </c>
       <c r="P98" s="39">
-        <v>10.0049521309742</v>
+        <v>5.2912395607747698</v>
       </c>
       <c r="Q98" s="39">
-        <v>11.4934993338716</v>
+        <v>7.5702920131534404</v>
       </c>
       <c r="R98" s="39">
-        <v>6.1197066714829997</v>
+        <v>6.5568483356751903</v>
       </c>
       <c r="S98" s="39">
-        <v>6.3295923498229296</v>
+        <v>6.5769251305763801</v>
       </c>
       <c r="T98" s="39">
-        <v>7.0729821572457201</v>
+        <v>7.6727495222031896</v>
       </c>
       <c r="U98" s="39">
-        <v>4.0274273282827098</v>
+        <v>3.60824451417967</v>
       </c>
       <c r="V98" s="39">
-        <v>1.7012523972807601</v>
+        <v>1.0407356440943001</v>
       </c>
       <c r="W98" s="39">
-        <v>4.4668832753018002</v>
+        <v>4.2376540312198703</v>
       </c>
       <c r="X98" s="39">
-        <v>4.1395632850012598</v>
+        <v>4.1100317700702798</v>
       </c>
       <c r="Y98" s="39">
-        <v>3.6167268474882799</v>
+        <v>2.1979109512474002</v>
       </c>
       <c r="Z98" s="39">
-        <v>2.9776452541415499</v>
+        <v>2.2649287130377802</v>
       </c>
       <c r="AA98" s="39">
-        <v>3.5074295378687799</v>
+        <v>3.9580308535606199</v>
       </c>
       <c r="AB98" s="39">
-        <v>1.4789041981339199</v>
+        <v>1.8856631093474501</v>
       </c>
       <c r="AC98" s="39">
-        <v>4.6150963522357298</v>
+        <v>4.0017624393951401</v>
       </c>
       <c r="AD98" s="39">
-        <v>2.12978303905426</v>
+        <v>2.7437632134290402</v>
       </c>
       <c r="AE98" s="39">
-        <v>2.1528219502387</v>
+        <v>1.9438351990659399</v>
       </c>
       <c r="AF98" s="39">
-        <v>1.4973388649627499</v>
+        <v>1.03327321713176</v>
       </c>
       <c r="AG98" s="39">
-        <v>-1.0621203489177999</v>
+        <v>0.35148641209803</v>
       </c>
       <c r="AH98" s="39">
-        <v>4.6404980889524303</v>
+        <v>4.4837751750688399</v>
       </c>
       <c r="AI98" s="39">
-        <v>5.0749431628383697</v>
+        <v>4.8789750798261302</v>
       </c>
       <c r="AJ98" s="39">
-        <v>2.8383973173863102</v>
+        <v>2.8160914204002498</v>
       </c>
       <c r="AK98" s="39">
-        <v>3.7996406222200099</v>
+        <v>3.89964088581692</v>
       </c>
       <c r="AL98" s="39">
-        <v>4.1865318009088801</v>
+        <v>4.3166794501563599</v>
       </c>
       <c r="AM98" s="39">
-        <v>4.3533786016578997</v>
+        <v>4.5236834772465597</v>
       </c>
       <c r="AN98" s="39">
-        <v>4.4532231242733502</v>
+        <v>4.6587809131030102</v>
       </c>
       <c r="AO98" s="39">
-        <v>4.4076608393345698</v>
+        <v>4.6089564575477002</v>
       </c>
       <c r="AP98" s="40">
-        <v>4.23981488376306</v>
+        <v>4.4011805659257801</v>
       </c>
     </row>
     <row r="99" spans="1:42" x14ac:dyDescent="0.35">
@@ -14484,11 +14484,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{B517FDDE-A287-40F0-9100-CC94C5D05891}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{17FDC442-CDC8-43AC-98AE-5B52BFF4750D}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{4071D221-AC59-4757-BAEC-A3B7627413BC}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{32A91D91-8A2A-43B9-A1FD-C0B5CE0C2DFC}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{7D63B6D9-C0C9-4C60-943C-A9A53EA7E3CD}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{F510DA94-86A3-4116-A299-65027C2986E0}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{ABC885F3-2649-4920-A895-C84C95204394}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{C28945B9-A755-40D2-9F7D-404B170F6EF0}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{89E6FA38-2DFB-4FBC-BEB9-2B702F308B93}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{D0BD3A82-4276-414D-99E4-F8BC245239F8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="35" fitToHeight="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab02.xlsx
+++ b/AfDD_2023_Annex_Table_Tab02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A65A59BF-E993-4FE1-B643-8500A9092D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1464841-1B7E-48E9-A9C3-323A46838C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{6C8CA3E0-7F62-49FD-B5E1-32FB82B3CD64}"/>
+    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{D1006AE4-F118-40EB-AB4C-C465DCB5AAF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab02" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="168">
   <si>
     <t>Table 2: Annual real GDP growth rate, 1990-2028</t>
   </si>
@@ -528,16 +528,19 @@
     <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
   </si>
   <si>
-    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details.</t>
-  </si>
-  <si>
-    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators.</t>
-  </si>
-  <si>
     <t>To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here.</t>
   </si>
   <si>
     <t>To download the entire dataset as a flat file in compressed CSV form, click here.</t>
+  </si>
+  <si>
+    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
+  </si>
+  <si>
+    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators, click here.</t>
+  </si>
+  <si>
+    <t>To see the full list of sources used in the Statistical Annex, click here.</t>
   </si>
 </sst>
 </file>
@@ -1295,7 +1298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E8D010-0D0A-4146-9799-1A919799FFD8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05691A7C-31F2-407C-98F6-47B9D209BB5A}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -14219,7 +14222,7 @@
     </row>
     <row r="109" spans="1:42" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C109" s="47"/>
       <c r="D109" s="47"/>
@@ -14264,7 +14267,7 @@
     </row>
     <row r="110" spans="1:42" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C110" s="47"/>
       <c r="D110" s="47"/>
@@ -14308,7 +14311,9 @@
       <c r="AP110" s="47"/>
     </row>
     <row r="111" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="B111" s="2"/>
+      <c r="B111" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="C111" s="47"/>
       <c r="D111" s="47"/>
       <c r="E111" s="47"/>
@@ -14352,7 +14357,7 @@
     </row>
     <row r="112" spans="1:42" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C112" s="47"/>
       <c r="D112" s="47"/>
@@ -14397,7 +14402,7 @@
     </row>
     <row r="113" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C113" s="47"/>
       <c r="D113" s="47"/>
@@ -14484,13 +14489,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{F510DA94-86A3-4116-A299-65027C2986E0}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{ABC885F3-2649-4920-A895-C84C95204394}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{C28945B9-A755-40D2-9F7D-404B170F6EF0}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{89E6FA38-2DFB-4FBC-BEB9-2B702F308B93}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{D0BD3A82-4276-414D-99E4-F8BC245239F8}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{EEF11F48-C2F2-4971-A015-E474A88BF289}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{37BC9E49-FB3C-48AE-8073-B2214BFE43D8}"/>
+    <hyperlink ref="B107" r:id="rId3" xr:uid="{0180AE9D-DFC3-4EC9-9376-E1289E73CBA3}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{CA2C94C4-9A9B-47E6-96CA-11E571A36F7F}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{896882A7-2FBC-4C8A-9A6E-434AF252C216}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{1A3FC1DD-8CA1-4A87-9CA8-2F5529621E06}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="35" fitToHeight="0" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="35" fitToHeight="0" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>